--- a/data_presentations/Table_S1.xlsx
+++ b/data_presentations/Table_S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Research_General\manuscripts\2020_04_14_Ca_Chx_allophototropha_paper\03_submission_to_Science\03_coauthor_edits\Ca-Chlorohelix-allophototropha-RCI\data_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D44844-45D1-4177-A764-BFFEA6A7521C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C32DAA-96EC-4A79-8A77-E2E935640FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. Chloroheliales bin L227-5C'</t>
+      <t>. Chloroheliaceae bin L227-5C'</t>
     </r>
   </si>
 </sst>
@@ -891,24 +891,24 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1278,7 +1278,7 @@
     <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.3671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
@@ -1325,42 +1325,42 @@
       <c r="A4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1593,51 +1593,51 @@
       <c r="A26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>71</v>
       </c>
     </row>
